--- a/medicine/Enfance/Jean_Burnat/Jean_Burnat.xlsx
+++ b/medicine/Enfance/Jean_Burnat/Jean_Burnat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Burnat (Saint-Malo, 1918 - Nantes, 1977)[1], est un écrivain et journaliste français[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Burnat (Saint-Malo, 1918 - Nantes, 1977), est un écrivain et journaliste français.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son père était receveur des PTT[3]. Son frère est le romancier André Burnat. Il est l'oncle du journaliste Patrice Burnat.
-En 1944, il publie à Genève son premier roman, un roman policier: Erreur de cadavre[3].
-Sa femme Elisabeth, auteur de Idiote chérie, Sissi impératrice d'Autriche a co-écrit certains de ces livres[4].
-Il fut le champion des jeux radiophoniques et télévisés: « Quitte ou double (émission)[5] » et « Réponse à tout »  très suivis en France[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son père était receveur des PTT. Son frère est le romancier André Burnat. Il est l'oncle du journaliste Patrice Burnat.
+En 1944, il publie à Genève son premier roman, un roman policier: Erreur de cadavre.
+Sa femme Elisabeth, auteur de Idiote chérie, Sissi impératrice d'Autriche a co-écrit certains de ces livres.
+Il fut le champion des jeux radiophoniques et télévisés: « Quitte ou double (émission) » et « Réponse à tout »  très suivis en France.
 Il a écrit également dans le genre Littérature d'enfance et de jeunesse.
 </t>
         </is>
@@ -546,9 +560,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est marié à la romancière Elisabeth Burnat[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est marié à la romancière Elisabeth Burnat.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Erreur de cadavre de Jean-André Burnat, Les Éditions Utiles, coll. « L'enquête », Genève, 1944
 Mes élèves et moi, illustrations Jacques Faizant, Calmann-Lévy, coll. « Labiche », no 1, 1952; réédition, illustrations de l'auteur, Calmann-Lévy, coll. « Calmann-Lévy Poche », 1957; réédition, Calmann-Lévy, coll. « Labiche », 1964
@@ -585,7 +603,7 @@
 Le cœur en feu, nouvelle dans Les œuvres Libres, Nouvelle série, no 84, mai 1953
 Boires et déboires de Giacommo Serpoletti, nouvelle dans Les œuvres Libres, Nouvelle série, no 97, juin 1954
 Monsieur Anodin, Calmann-Lévy, coll. « Labiche », no 19, 1954
-C'est Dupont, mon empereur ! (Mémoires inédits du grenadier Nicéphore Dupont natif de Melle (Vendée))[7], préface de Jean Richard, Éditions Amiot-Dumont, coll. « Toute la ville en parle », 1954; réédition Éditions Marabout, coll. « Marabout collection », no 200, 1957; réédition, couverture Point 50/B. Flageul-P. Magaud, Le Livre de Poche, Librairie Générale Française, 1979
+C'est Dupont, mon empereur ! (Mémoires inédits du grenadier Nicéphore Dupont natif de Melle (Vendée)), préface de Jean Richard, Éditions Amiot-Dumont, coll. « Toute la ville en parle », 1954; réédition Éditions Marabout, coll. « Marabout collection », no 200, 1957; réédition, couverture Point 50/B. Flageul-P. Magaud, Le Livre de Poche, Librairie Générale Française, 1979
 C'est du Pont, mon Éminence! (Mémoires inédits de Nicaise du Pont de la Bouze de Bedousse, le cinquième mousquetaire), Éditions Amiot-Dumont, coll. « Toute la ville en parle », 1955
 Drôle de journée, par un collectif d'auteurs, couverture de Gus, Calmann-Lévy, coll. « Labiche », 1955
 C'est d'Upont, mon impératrice! (Mémoires inédits du général Napoléon d'Upont, colonel aux dragons de l'impératrice), Éditions Amiot-Dumont, coll. « Toute la ville en parle », 1956
